--- a/reports/raw-views/assets/tables/meso_concordancia.xlsx
+++ b/reports/raw-views/assets/tables/meso_concordancia.xlsx
@@ -531,10 +531,10 @@
         <v>90.54054054054053</v>
       </c>
       <c r="F4" t="n">
-        <v>55.95238095238096</v>
+        <v>54.66666666666666</v>
       </c>
       <c r="G4" t="n">
-        <v>60.47904191616767</v>
+        <v>58.66666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -556,10 +556,10 @@
         <v>87.16216216216216</v>
       </c>
       <c r="F5" t="n">
-        <v>30.35714285714285</v>
+        <v>30.66666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>31.73652694610778</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -581,10 +581,10 @@
         <v>88.51351351351352</v>
       </c>
       <c r="F6" t="n">
-        <v>15.47619047619048</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>14.97005988023952</v>
+        <v>12.66666666666667</v>
       </c>
     </row>
   </sheetData>
